--- a/cartes.xlsx
+++ b/cartes.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="474747" sheetId="2" r:id="rId2"/>
-    <sheet name="13_02_2025" sheetId="3" r:id="rId3"/>
+    <sheet name="cartes" sheetId="1" r:id="rId1"/>
+    <sheet name="16_02_2025" sheetId="2" r:id="rId2"/>
+    <sheet name="744747" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -3731,7 +3731,7 @@
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>Reverse World&amp;apos;s Giratina Lv.60</v>
+        <v>Reverse Worlds Giratina Lv.60</v>
       </c>
       <c r="B198" t="str">
         <v>005/009</v>
@@ -3782,7 +3782,7 @@
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>Icy Sky&amp;apos;s Shaymin Lv.62</v>
+        <v>Icy Skys Shaymin Lv.62</v>
       </c>
       <c r="B201" t="str">
         <v>001/009</v>
@@ -3940,7 +3940,7 @@
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>Crystal Tower&amp;apos;s Entei</v>
+        <v>Crystal Towers Entei</v>
       </c>
       <c r="C211" t="str">
         <v>10M</v>
@@ -3954,7 +3954,7 @@
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>Alto Mare&amp;apos;s Latias</v>
+        <v>Alto Mares Latias</v>
       </c>
       <c r="C212" t="str">
         <v>10M</v>
@@ -3968,7 +3968,7 @@
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>Alto Mare&amp;apos;s Latios</v>
+        <v>Alto Mares Latios</v>
       </c>
       <c r="C213" t="str">
         <v>10M</v>
@@ -3982,7 +3982,7 @@
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>Tree of Beginning&amp;apos;s Mew</v>
+        <v>Tree of Beginnings Mew</v>
       </c>
       <c r="C214" t="str">
         <v>10M</v>
@@ -4072,7 +4072,7 @@
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>Real World&amp;apos;s Giratina Lv.62</v>
+        <v>Real Worlds Giratina Lv.62</v>
       </c>
       <c r="B220">
         <v>109</v>
@@ -4887,7 +4887,7 @@
     </row>
     <row r="272">
       <c r="A272" t="str">
-        <v>Mouflair Lv.36</v>
+        <v>Moufflair Lv.36</v>
       </c>
       <c r="C272" t="str">
         <v>DP1</v>
@@ -5855,6 +5855,9 @@
       <c r="F2" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Eevee-Heroes/Umbreon-V-V3-s6a085?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G2">
+        <v>188.83</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -5875,6 +5878,9 @@
       <c r="F3" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Eevee-Heroes/Glaceon-VMAX-V1?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -5895,6 +5901,9 @@
       <c r="F4" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Eevee-Heroes/Sylveon-VMAX-V1-s6a041?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G4">
+        <v>0.98</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -5915,6 +5924,9 @@
       <c r="F5" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Eevee-Heroes/Umbreon-VMAX-V1?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G5">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -5935,6 +5947,9 @@
       <c r="F6" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Eevee-Heroes/Sylveon-V-V1?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G6">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -5955,6 +5970,9 @@
       <c r="F7" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Eevee-Heroes/Glaceon-V-V1-s6a024?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G7">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -5975,6 +5993,9 @@
       <c r="F8" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Eevee-Heroes/Vaporeon-V-V1?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G8">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -5995,6 +6016,9 @@
       <c r="F9" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Eevee-Heroes/Leafeon-V-V1?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G9">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -6015,6 +6039,9 @@
       <c r="F10" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Blue-Sky-Stream/Trevenant-V-V2?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G10">
+        <v>1.73</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -6035,6 +6062,9 @@
       <c r="F11" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Blue-Sky-Stream/Gyarados-VMAX-V1?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G11">
+        <v>1.97</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -6055,6 +6085,9 @@
       <c r="F12" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Blue-Sky-Stream/Rayquaza-VMAX-V1-s7R047?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G12">
+        <v>1.83</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -6075,6 +6108,9 @@
       <c r="F13" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Blue-Sky-Stream/Gyarados-V-V1-s7R020?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G13">
+        <v>0.49</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -6095,6 +6131,9 @@
       <c r="F14" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Blue-Sky-Stream/Rayquaza-V-V1?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G14">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -6115,6 +6154,9 @@
       <c r="F15" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Blue-Sky-Stream/Volcarona-V-V1-s7R015?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G15">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -6135,6 +6177,9 @@
       <c r="F16" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Blue-Sky-Stream/Trevenant-V-V1?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G16">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -6155,6 +6200,9 @@
       <c r="F17" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Blue-Sky-Stream/Dragonite-V-V1?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G17">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -6175,6 +6223,9 @@
       <c r="F18" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VMAX-Climax/Duraludon-VMAX-V3-s8b285?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G18">
+        <v>3.57</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -6195,6 +6246,9 @@
       <c r="F19" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VMAX-Climax/Centiskorch-V-V1-s8b022?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G19">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -6215,6 +6269,9 @@
       <c r="F20" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VMAX-Climax/Umbreon-V-V1-s8b100?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G20">
+        <v>0.56</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -6235,6 +6292,9 @@
       <c r="F21" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VMAX-Climax/Zeraora-V-V1-s8b054?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G21">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -6255,6 +6315,9 @@
       <c r="F22" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VMAX-Climax/Galarian-Moltres-V-V1-s8b096?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G22">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -6275,6 +6338,9 @@
       <c r="F23" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VMAX-Climax/Duraludon-V?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G23">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -6295,6 +6361,9 @@
       <c r="F24" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VMAX-Climax/Mimikyu-V-V1-s8b076?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G24">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -6315,6 +6384,9 @@
       <c r="F25" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VMAX-Climax/Rayquaza-VMAX-V1-s8b120?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G25">
+        <v>0.81</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -6335,6 +6407,9 @@
       <c r="F26" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VMAX-Climax/Pikachu-VMAX-V1-s8b046?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G26">
+        <v>1.33</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -6355,6 +6430,9 @@
       <c r="F27" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VMAX-Climax/Ice-Rider-Calyrex-VMAX-V1-s8b044?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G27">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -6375,6 +6453,9 @@
       <c r="F28" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VMAX-Climax/Flareon-V2-s8b188?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G28">
+        <v>4.75</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -6395,6 +6476,9 @@
       <c r="F29" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VMAX-Climax/Eevee-V2-s8b210?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G29">
+        <v>6.4</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -6415,6 +6499,9 @@
       <c r="F30" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VMAX-Climax/Falinks-V2-s8b204?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G30">
+        <v>1.21</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -6435,6 +6522,9 @@
       <c r="F31" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VMAX-Climax/Corviknight-V-V2-s8b248?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G31">
+        <v>3.95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -6455,6 +6545,9 @@
       <c r="F32" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Machamp-V-s12a071?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G32">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -6475,6 +6568,9 @@
       <c r="F33" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Enamorus-V-s12a068?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G33">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -6495,6 +6591,9 @@
       <c r="F34" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Wyrdeer-V-s12a131?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G34">
+        <v>0.07</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
@@ -6515,6 +6614,9 @@
       <c r="F35" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Regigigas-V-s12a124?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G35">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
@@ -6535,6 +6637,9 @@
       <c r="F36" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Mewtwo-V-s12a050?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G36">
+        <v>0.43</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
@@ -6555,6 +6660,9 @@
       <c r="F37" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Comfey-V2-s12a187?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G37">
+        <v>0.57</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
@@ -6575,6 +6683,9 @@
       <c r="F38" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Oricorio-V2-s12a176?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G38">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
@@ -6595,6 +6706,9 @@
       <c r="F39" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Bibarel-V2-s12a200?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G39">
+        <v>1.03</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
@@ -6615,6 +6729,9 @@
       <c r="F40" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Lightning-Energy-s12a254?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G40">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
@@ -6635,6 +6752,9 @@
       <c r="F41" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Origin-Forme-Dialga-VSTAR-V1-s12a101?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G41">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
@@ -6655,6 +6775,9 @@
       <c r="F42" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Giratina-VSTAR-V1-s12a111?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G42">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
@@ -6675,6 +6798,9 @@
       <c r="F43" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Mew-VMAX-s12a054?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G43">
+        <v>0.87</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
@@ -6695,6 +6821,9 @@
       <c r="F44" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Regigigas-VSTAR-V1-s12a125?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G44">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
@@ -6715,6 +6844,9 @@
       <c r="F45" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Gardenias-Vigor-V2-s12a243?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G45">
+        <v>13.42</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
@@ -6735,6 +6867,9 @@
       <c r="F46" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Zacian-V-V2-s12a225?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G46">
+        <v>12.15</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
@@ -6755,6 +6890,9 @@
       <c r="F47" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Radiant-Charizard-s12a015?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G47">
+        <v>2.75</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
@@ -6775,6 +6913,9 @@
       <c r="F48" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Entei-V-V2-s12a213?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G48">
+        <v>18.93</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
@@ -6795,6 +6936,9 @@
       <c r="F49" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Rayquaza-VMAX-s12a108?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G49">
+        <v>0.88</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
@@ -6815,6 +6959,9 @@
       <c r="F50" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Origin-Forme-Palkia-VSTAR-V1-s12a028?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G50">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
@@ -6835,6 +6982,9 @@
       <c r="F51" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Origin-Forme-Dialga-VSTAR-V1-s12a101?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G51">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
@@ -6855,6 +7005,9 @@
       <c r="F52" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Thievul-V2-s12a192?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G52">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
@@ -6875,6 +7028,9 @@
       <c r="F53" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Toxtricity-V2-s12a181?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G53">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
@@ -6895,6 +7051,9 @@
       <c r="F54" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Miltank-V2-s12a199?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G54">
+        <v>0.83</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
@@ -6915,6 +7074,9 @@
       <c r="F55" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Hisuian-Zoroark-V-s12a128?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G55">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
@@ -6935,6 +7097,9 @@
       <c r="F56" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Zeraora-V-s12a040?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G56">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
@@ -6955,6 +7120,9 @@
       <c r="F57" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Giratina-V-s12a110?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G57">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
@@ -6975,6 +7143,9 @@
       <c r="F58" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Hatterene-V-s12a065?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G58">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
@@ -6995,6 +7166,9 @@
       <c r="F59" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Garchomp-V-s12a109?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G59">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
@@ -7015,6 +7189,9 @@
       <c r="F60" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Professors-Research-Professor-Rowan-V2-s12a248?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G60">
+        <v>1.13</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
@@ -7035,6 +7212,9 @@
       <c r="F61" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Psychic-Energy-s12a255?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G61">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
@@ -7055,6 +7235,9 @@
       <c r="F62" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Radiant-Hawlucha-s12a078?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G62">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
@@ -7075,6 +7258,9 @@
       <c r="F63" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Platinum/Giratina-Lv63-PL10?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=2&amp;minCondition=3&amp;isReverseHolo=N</v>
       </c>
+      <c r="G63">
+        <v>30</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
@@ -7095,6 +7281,9 @@
       <c r="F64" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Giratina-VSTAR-V2-s12a261?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G64">
+        <v>128.83</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
@@ -7115,6 +7304,9 @@
       <c r="F65" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Darkness-Energy-s12a257?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G65">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
@@ -7135,6 +7327,9 @@
       <c r="F66" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Metal-Energy-s12a258?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G66">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
@@ -7155,6 +7350,9 @@
       <c r="F67" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Fire-Energy-s12a252?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G67">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
@@ -7175,6 +7373,9 @@
       <c r="F68" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Regigigas-VSTAR-V2-s12a233?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G68">
+        <v>7.73</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
@@ -7195,6 +7396,9 @@
       <c r="F69" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Entei-V-V2-s12a213?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G69">
+        <v>19.9</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
@@ -7215,6 +7419,9 @@
       <c r="F70" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Suicune-V-V2-s12a215?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G70">
+        <v>27.66</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
@@ -7235,6 +7442,9 @@
       <c r="F71" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Hisuian-Samurott-V-V2-s12a229?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G71">
+        <v>5.05</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
@@ -7255,6 +7465,9 @@
       <c r="F72" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Darkrai-VSTAR-s12a228?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G72">
+        <v>18.95</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
@@ -7275,6 +7488,9 @@
       <c r="F73" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Deoxys-VMAX-s12a222?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G73">
+        <v>13.21</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
@@ -7295,6 +7511,9 @@
       <c r="F74" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Zacian-V-V2-s12a225?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G74">
+        <v>12.15</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
@@ -7315,6 +7534,9 @@
       <c r="F75" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Hoopa-V-s12a231?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G75">
+        <v>4.33</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
@@ -7335,6 +7557,9 @@
       <c r="F76" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Hisuian-Samurott-VSTAR-V2-s12a230?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G76">
+        <v>4.41</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
@@ -7355,6 +7580,9 @@
       <c r="F77" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Raikou-V-V2-s12a218?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G77">
+        <v>17.16</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
@@ -7375,6 +7603,9 @@
       <c r="F78" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Drapion-V-V2-s12a227?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G78">
+        <v>2.65</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
@@ -7395,6 +7626,9 @@
       <c r="F79" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Keldeo-V2-s12a179?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G79">
+        <v>3.09</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
@@ -7415,6 +7649,9 @@
       <c r="F80" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Dunsparce-V2-s12a198?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G80">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
@@ -7435,6 +7672,9 @@
       <c r="F81" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Magmortar-V2-s12a175?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G81">
+        <v>1.95</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
@@ -7455,6 +7695,9 @@
       <c r="F82" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Lapras-V2-s12a177?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G82">
+        <v>2.96</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
@@ -7475,6 +7718,9 @@
       <c r="F83" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Electivire-V2-s12a180?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G83">
+        <v>1.64</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
@@ -7495,6 +7741,9 @@
       <c r="F84" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Lunatone-V2-s12a184?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G84">
+        <v>0.98</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
@@ -7515,6 +7764,9 @@
       <c r="F85" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Galarian-Zapdos-V2-s12a188?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G85">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
@@ -7535,6 +7787,9 @@
       <c r="F86" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Absol-V2-s12a191?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G86">
+        <v>1.83</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
@@ -7555,6 +7810,9 @@
       <c r="F87" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Thievul-V2-s12a192?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G87">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
@@ -7575,6 +7833,9 @@
       <c r="F88" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Magnezone-V2-s12a193?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
@@ -7595,6 +7856,9 @@
       <c r="F89" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Hisuian-Voltorb-V2-s12a173?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G89">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
@@ -7615,6 +7879,9 @@
       <c r="F90" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Altaria-V2-s12a194?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G90">
+        <v>0.96</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
@@ -7635,6 +7902,9 @@
       <c r="F91" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Mew-V2-s12a183?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G91">
+        <v>14.25</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
@@ -7655,6 +7925,9 @@
       <c r="F92" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Kricketune-V2-s12a174?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G92">
+        <v>0.92</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
@@ -7675,6 +7948,9 @@
       <c r="F93" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Diancie-V2-s12a186?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G93">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
@@ -7695,6 +7971,9 @@
       <c r="F94" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Galarian-Moltres-V2-s12a190?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G94">
+        <v>2.41</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
@@ -7715,6 +7994,9 @@
       <c r="F95" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Hisuian-Goodra-V2-s12a196?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G95">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
@@ -7735,6 +8017,9 @@
       <c r="F96" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Galarian-Articuno-V2-s12a182?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G96">
+        <v>1.23</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
@@ -7755,6 +8040,9 @@
       <c r="F97" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/151/Blastoise-ex-V3-MEW200?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=2&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G97">
+        <v>79.67</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
@@ -7775,6 +8063,9 @@
       <c r="F98" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/151/Giovannis-Charisma-V3-MEW204?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=2&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G98">
+        <v>25</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
@@ -7795,6 +8086,9 @@
       <c r="F99" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Hisuian-Voltorb-V2-s12a173?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G99">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
@@ -7815,6 +8109,9 @@
       <c r="F100" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Clay-Burst/Grafaiai-V2-sv2D080?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G100">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
@@ -7835,6 +8132,9 @@
       <c r="F101" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Clay-Burst/Maushold-V2-sv2D081?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G101">
+        <v>5.33</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
@@ -7855,6 +8155,9 @@
       <c r="F102" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Ruler-of-the-Black-Flame/Varoom-V2-sv3117?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G102">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
@@ -7875,6 +8178,9 @@
       <c r="F103" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VMAX-Climax/Castform-V2-s8b211?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G103">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
@@ -7895,6 +8201,9 @@
       <c r="F104" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VMAX-Climax/Houndoom-V2-s8b206?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G104">
+        <v>0.56</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
@@ -7915,6 +8224,9 @@
       <c r="F105" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VMAX-Climax/Oranguru-V2-s8b212?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G105">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
@@ -7935,6 +8247,9 @@
       <c r="F106" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Ruler-of-the-Black-Flame/Palafin-V2-sv3111?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G106">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
@@ -7955,6 +8270,9 @@
       <c r="F107" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Scarlet-ex/Sandile-V2-sv1S087?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G107">
+        <v>1.01</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
@@ -7975,6 +8293,9 @@
       <c r="F108" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Thievul-V2-s12a192?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G108">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
@@ -7995,6 +8316,9 @@
       <c r="F109" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Dark-Phantasma/Hisuian-Arcanine-V2-s10a075?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G109">
+        <v>0.99</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
@@ -8015,6 +8339,9 @@
       <c r="F110" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VMAX-Climax/Octillery-V2-s8b191?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G110">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
@@ -8035,6 +8362,9 @@
       <c r="F111" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Scarlet-ex/Klawf-V2-sv1S088?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G111">
+        <v>0.94</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
@@ -8055,6 +8385,9 @@
       <c r="F112" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VMAX-Climax/Ariados-V2-s8b205?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G112">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
@@ -8075,6 +8408,9 @@
       <c r="F113" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VMAX-Climax/Dusknoir-V2-s8b198?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G113">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
@@ -8095,6 +8431,9 @@
       <c r="F114" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Battle-Region/Wyrdeer-V2-s9a070?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G114">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
@@ -8115,6 +8454,9 @@
       <c r="F115" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VMAX-Climax/Malamar-V2-s8b199?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G115">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
@@ -8135,6 +8477,9 @@
       <c r="F116" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Battle-Region/Hoothoot-V2-s9a073?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G116">
+        <v>1.33</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
@@ -8155,6 +8500,9 @@
       <c r="F117" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Incandescent-Arcana/Smeargle-V2-s11a073?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G117">
+        <v>0.93</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
@@ -8175,6 +8523,9 @@
       <c r="F118" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Snow-Hazard/Orthworm-V2-sv2P081?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G118">
+        <v>0.92</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
@@ -8195,6 +8546,9 @@
       <c r="F119" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VMAX-Climax/Alcremie-V2-s8b201?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G119">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
@@ -8215,6 +8569,9 @@
       <c r="F120" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Shiny-Treasure-ex/Charizard-ex-V1-sv4a115?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G120">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
@@ -8235,6 +8592,9 @@
       <c r="F121" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Shiny-Treasure-ex/Wigglytuff-ex-V1-sv4a141?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G121">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
@@ -8255,6 +8615,9 @@
       <c r="F122" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Shiny-Treasure-ex/Alakazam-ex-V1-sv4a075?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G122">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
@@ -8275,6 +8638,9 @@
       <c r="F123" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Shiny-Treasure-ex/Koraidon-ex-V1-sv4a114?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G123">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
@@ -8295,6 +8661,9 @@
       <c r="F124" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Shiny-Treasure-ex/Skeledirge-ex-V1-sv4a032?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G124">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
@@ -8315,6 +8684,9 @@
       <c r="F125" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Shiny-Treasure-ex/Meowscarada-ex-V1-sv4a014?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G125">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
@@ -8335,6 +8707,9 @@
       <c r="F126" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Shiny-Treasure-ex/Forretress-ex-V1-sv4a009?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G126">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
@@ -8355,6 +8730,9 @@
       <c r="F127" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Shiny-Treasure-ex/Pidgeot-ex-V1-sv4a139?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G127">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
@@ -8375,6 +8753,9 @@
       <c r="F128" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Shiny-Treasure-ex/Mew-ex-V1-sv4a076?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G128">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
@@ -8395,6 +8776,9 @@
       <c r="F129" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Shiny-Treasure-ex/Paldean-Clodsire-ex-V1-sv4a117?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G129">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
@@ -8415,6 +8799,9 @@
       <c r="F130" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Shiny-Treasure-ex/Toedscruel-ex-V1-sv4a019?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G130">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
@@ -8435,6 +8822,9 @@
       <c r="F131" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Shiny-Treasure-ex/Chien-Pao-ex-V1-sv4a054?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G131">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
@@ -8455,6 +8845,9 @@
       <c r="F132" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Shiny-Treasure-ex/Iron-Treads-ex-V1-sv4a132?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G132">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
@@ -8475,6 +8868,9 @@
       <c r="F133" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Shiny-Treasure-ex/Glimmora-ex-V1-sv4a111?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G133">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
@@ -8495,6 +8891,9 @@
       <c r="F134" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Shiny-Treasure-ex/Ting-Lu-ex-V1-sv4a113?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G134">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
@@ -8515,6 +8914,9 @@
       <c r="F135" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Shiny-Treasure-ex/Espathra-ex-V1-sv4a023?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G135">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
@@ -8535,6 +8937,9 @@
       <c r="F136" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Shiny-Treasure-ex/Wo-Chien-ex-V1-sv4a024?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G136">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
@@ -8555,6 +8960,9 @@
       <c r="F137" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Shiny-Treasure-ex/Quaquaval-ex-V1-sv4a043?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G137">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
@@ -8575,6 +8983,9 @@
       <c r="F138" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Shiny-Treasure-ex/Great-Tusk-ex-V1-sv4a112?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G138">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
@@ -8595,6 +9006,9 @@
       <c r="F139" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Shiny-Treasure-ex/Miraidon-ex-V1-sv4a071?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G139">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
@@ -8615,6 +9029,9 @@
       <c r="F140" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Shiny-Treasure-ex/Squawkabilly-ex-V1-sv4a154?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G140">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
@@ -8635,6 +9052,9 @@
       <c r="F141" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Shiny-Treasure-ex/Chi-Yu-ex-V1-sv4a035?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G141">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
@@ -8655,6 +9075,9 @@
       <c r="F142" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Shiny-Treasure-ex/Noivern-ex-V1-sv4a135?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G142">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
@@ -8675,6 +9098,9 @@
       <c r="F143" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Shiny-Treasure-ex/Gardevoir-ex-V1-sv4a082?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G143">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
@@ -8692,6 +9118,9 @@
       <c r="F144" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Dawn-Dash/Gardevoir-Lv55-DP4d?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G144">
+        <v>9.76</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
@@ -8709,6 +9138,9 @@
       <c r="F145" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Dawn-Dash/Sceptile-Lv52-DP4d?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=3&amp;isReverseHolo=N</v>
       </c>
+      <c r="G145">
+        <v>5.32</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
@@ -8726,6 +9158,9 @@
       <c r="F146" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Dawn-Dash/Togekiss-Lv51-DP4d?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G146">
+        <v>4.52</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
@@ -8746,6 +9181,9 @@
       <c r="F147" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VMAX-Climax/Zekrom-V2-s8b195?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G147">
+        <v>17.48</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
@@ -8766,6 +9204,9 @@
       <c r="F148" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Star-Birth/Shaymin-V-V2-s9101?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G148">
+        <v>1.44</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
@@ -8786,6 +9227,9 @@
       <c r="F149" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Incandescent-Arcana/Ho-Oh-V-V2-s11a080?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G149">
+        <v>5.08</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
@@ -8806,6 +9250,9 @@
       <c r="F150" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Emerald-Break/Shaymin-EX-V1-XY6063?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G150">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
@@ -8826,6 +9273,9 @@
       <c r="F151" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Dragon-Storm/White-Kyurem-GX-V1-sm6a035?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G151">
+        <v>2.16</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
@@ -8846,6 +9296,9 @@
       <c r="F152" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Sky-Splitting-Charisma/Blaziken-GX-V1-sm7018?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G152">
+        <v>3.35</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
@@ -8866,6 +9319,9 @@
       <c r="F153" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/GX-Ultra-Shiny/Reshiram-GX-sm8b018?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G153">
+        <v>1.91</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
@@ -8886,6 +9342,9 @@
       <c r="F154" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Double-Blaze/Honchkrow-GX-V1-sm10056?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G154">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
@@ -8906,6 +9365,9 @@
       <c r="F155" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Tag-All-Stars/Keldeo-GX-sm12a036?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G155">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
@@ -8926,6 +9388,9 @@
       <c r="F156" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Tag-All-Stars/Alolan-Ninetales-GX-sm12a095?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G156">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
@@ -8946,6 +9411,9 @@
       <c r="F157" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Extra-Regulation-Box/Hoopa-EX-ERB010?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G157">
+        <v>2.65</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
@@ -8966,6 +9434,9 @@
       <c r="F158" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/V-Starter-Decks/Lucario-V-sD50?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G158">
+        <v>2.16</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
@@ -8986,6 +9457,9 @@
       <c r="F159" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Sword-Shield-Family-Pokemon-Card-Game/Lucario-V?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G159">
+        <v>1.98</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
@@ -9006,6 +9480,9 @@
       <c r="F160" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Towering-Perfection/Suicune-V-V1-s7D001?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G160">
+        <v>0.87</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
@@ -9026,6 +9503,9 @@
       <c r="F161" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VMAX-Climax/Blaziken-V-V1-s8b019?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G161">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
@@ -9046,6 +9526,9 @@
       <c r="F162" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VMAX-Climax/Abomasnow-V2-s8b185?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G162">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
@@ -9066,6 +9549,9 @@
       <c r="F163" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VMAX-Climax/Frosmoth-V2-s8b192?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G163">
+        <v>0.88</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
@@ -9086,6 +9572,9 @@
       <c r="F164" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VMAX-Climax/Kingdra-V2-s8b190?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G164">
+        <v>2.59</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
@@ -9106,6 +9595,9 @@
       <c r="F165" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VMAX-Climax/Dusknoir-V2-s8b198?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G165">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
@@ -9126,6 +9618,9 @@
       <c r="F166" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Star-Birth/Shaymin-VSTAR-V1-s9013?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G166">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
@@ -9146,6 +9641,9 @@
       <c r="F167" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Time-Gazer/Luxray-V-V1-s10D021?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G167">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
@@ -9166,6 +9664,9 @@
       <c r="F168" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Incandescent-Arcana/Serperior-VSTAR-V1-s11a006?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G168">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
@@ -9186,6 +9687,9 @@
       <c r="F169" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Incandescent-Arcana/Alolan-Vulpix-VSTAR-V1-s11a023?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G169">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
@@ -9206,6 +9710,9 @@
       <c r="F170" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Incandescent-Arcana/Serperior-V-V1-s11a005?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G170">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
@@ -9226,6 +9733,9 @@
       <c r="F171" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Incandescent-Arcana/Ho-Oh-V-V1-s11a055?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G171">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
@@ -9246,6 +9756,9 @@
       <c r="F172" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Incandescent-Arcana/Milotic-V2-s11a070?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G172">
+        <v>2.41</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
@@ -9266,6 +9779,9 @@
       <c r="F173" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Incandescent-Arcana/Gardevoir-V2-s11a072?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G173">
+        <v>1.66</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
@@ -9286,6 +9802,9 @@
       <c r="F174" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Ruler-of-the-Black-Flame/Gloom-V2-sv3109?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G174">
+        <v>3.08</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
@@ -9306,6 +9825,9 @@
       <c r="F175" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Ruler-of-the-Black-Flame/Ninetales-V2-sv3110?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G175">
+        <v>7.68</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
@@ -9326,6 +9848,9 @@
       <c r="F176" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Ruler-of-the-Black-Flame/Scizor-V2-sv3116?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G176">
+        <v>2.62</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
@@ -9346,6 +9871,9 @@
       <c r="F177" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Ruler-of-the-Black-Flame/Glimmet-sv3063?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G177">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
@@ -9366,6 +9894,9 @@
       <c r="F178" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Ruler-of-the-Black-Flame/Glimmet-sv3064?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G178">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
@@ -9386,6 +9917,9 @@
       <c r="F179" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Future-Flash/Espathra-V2-sv4M073?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G179">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
@@ -9406,6 +9940,9 @@
       <c r="F180" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VMAX-Climax/Zekrom-V2-s8b195?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G180">
+        <v>17.48</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
@@ -9426,6 +9963,9 @@
       <c r="F181" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Star-Birth/Shaymin-V-V2-s9101?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G181">
+        <v>1.44</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
@@ -9446,6 +9986,9 @@
       <c r="F182" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Incandescent-Arcana/Ho-Oh-V-V2-s11a080?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G182">
+        <v>5.08</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
@@ -9466,6 +10009,9 @@
       <c r="F183" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Shiny-Collection/Growlithe?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G183">
+        <v>20.65</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
@@ -9486,6 +10032,9 @@
       <c r="F184" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Shiny-Collection/Piplup?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G184">
+        <v>10.63</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
@@ -9506,6 +10055,9 @@
       <c r="F185" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Shiny-Collection/Cinccino?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G185">
+        <v>9.22</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
@@ -9526,6 +10078,9 @@
       <c r="F186" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Shiny-Collection/Snivy?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G186">
+        <v>3</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
@@ -9546,6 +10101,9 @@
       <c r="F187" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Shiny-Collection/Servine?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G187">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
@@ -9566,6 +10124,9 @@
       <c r="F188" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Shiny-Collection/Torchic?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G188">
+        <v>3.27</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
@@ -9586,6 +10147,9 @@
       <c r="F189" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Shiny-Collection/Kirlia?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G189">
+        <v>8.96</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
@@ -9606,6 +10170,9 @@
       <c r="F190" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Shiny-Collection/Teddiursa?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G190">
+        <v>3.48</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
@@ -9626,6 +10193,9 @@
       <c r="F191" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Shiny-Collection/Ursaring?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G191">
+        <v>6.16</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
@@ -9646,6 +10216,9 @@
       <c r="F192" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Shiny-Collection/Minccino?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G192">
+        <v>2.65</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
@@ -9663,6 +10236,9 @@
       <c r="F193" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Moonlit-Pursuit/Rotom-Lv38-DP4m?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G193">
+        <v>4.23</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
@@ -9680,6 +10256,9 @@
       <c r="F194" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Moonlit-Pursuit/Cresselia-Lv48-DP4m?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G194">
+        <v>4.98</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
@@ -9697,6 +10276,9 @@
       <c r="F195" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Secret-of-the-Lakes/Uxie-Lv50-DP2?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=3&amp;isReverseHolo=N</v>
       </c>
+      <c r="G195">
+        <v>5.66</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
@@ -9714,6 +10296,9 @@
       <c r="F196" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Secret-of-the-Lakes/Azelf-Lv50-DP2?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=3&amp;isReverseHolo=N</v>
       </c>
+      <c r="G196">
+        <v>6</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
@@ -9731,10 +10316,13 @@
       <c r="F197" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Magmortar-vs-Electivire-Deck-Kit/Electivire-Lv50-V1-MEDK?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=3&amp;isReverseHolo=N</v>
       </c>
+      <c r="G197">
+        <v>6.46</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>Reverse World&amp;apos;s Giratina Lv.60</v>
+        <v>Reverse Worlds Giratina Lv.60</v>
       </c>
       <c r="B198" t="str">
         <v>005/009</v>
@@ -9750,6 +10338,9 @@
       </c>
       <c r="F198" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/11th-Movie-Commemoration-Set/Reverse-Worlds-Giratina-Lv60?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=Y</v>
+      </c>
+      <c r="G198">
+        <v>50</v>
       </c>
     </row>
     <row r="199">
@@ -9771,6 +10362,9 @@
       <c r="F199" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/11th-Movie-Commemoration-Set/Pikachu-Lv10?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G199">
+        <v>25</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
@@ -9791,10 +10385,13 @@
       <c r="F200" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/11th-Movie-Commemoration-Set/Dialga-Lv69?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G200">
+        <v>8.42</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>Icy Sky&amp;apos;s Shaymin Lv.62</v>
+        <v>Icy Skys Shaymin Lv.62</v>
       </c>
       <c r="B201" t="str">
         <v>001/009</v>
@@ -9810,6 +10407,9 @@
       </c>
       <c r="F201" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/11th-Movie-Commemoration-Set/Icy-Skys-Shaymin-Lv62-11M001?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
+      </c>
+      <c r="G201">
+        <v>6.28</v>
       </c>
     </row>
     <row r="202">
@@ -9831,6 +10431,9 @@
       <c r="F202" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/11th-Movie-Commemoration-Set/Magnezone-Lv53?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G202">
+        <v>2.16</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
@@ -9851,6 +10454,9 @@
       <c r="F203" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/11th-Movie-Commemoration-Set/Mamoswine-Lv58?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G203">
+        <v>3.32</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
@@ -9871,6 +10477,9 @@
       <c r="F204" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/11th-Movie-Commemoration-Set/Piplup-Lv7-11M002?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G204">
+        <v>11.95</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
@@ -9891,6 +10500,9 @@
       <c r="F205" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/11th-Movie-Commemoration-Set/Regigigas-Lv46?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G205">
+        <v>5.48</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
@@ -9911,6 +10523,9 @@
       <c r="F206" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/11th-Movie-Commemoration-Set/Shieldon-Lv25?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G206">
+        <v>3.81</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
@@ -9928,6 +10543,9 @@
       <c r="F207" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/10th-Movie-Commemoration-Set/Explosive-Birth-Lugia?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G207">
+        <v>39.62</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
@@ -9943,7 +10561,10 @@
         <v>NM</v>
       </c>
       <c r="F208" t="str">
-        <v>error</v>
+        <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/10th-Movie-Commemoration-Set/Striking-Back-Mewtwo?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
+      </c>
+      <c r="G208">
+        <v>16.33</v>
       </c>
     </row>
     <row r="209">
@@ -9962,6 +10583,9 @@
       <c r="F209" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/10th-Movie-Commemoration-Set/Timeless-Celebi?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G209">
+        <v>14.92</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
@@ -9979,10 +10603,13 @@
       <c r="F210" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/10th-Movie-Commemoration-Set/Wave-Guiding-Hero-Lucario?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G210">
+        <v>11.67</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>Crystal Tower&amp;apos;s Entei</v>
+        <v>Crystal Towers Entei</v>
       </c>
       <c r="C211" t="str">
         <v>10M</v>
@@ -9996,10 +10623,13 @@
       <c r="F211" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/10th-Movie-Commemoration-Set/Crystal-Towers-Entei?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G211">
+        <v>8.88</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>Alto Mare&amp;apos;s Latias</v>
+        <v>Alto Mares Latias</v>
       </c>
       <c r="C212" t="str">
         <v>10M</v>
@@ -10013,10 +10643,13 @@
       <c r="F212" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/10th-Movie-Commemoration-Set/Alto-Mares-Latias?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G212">
+        <v>21.67</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>Alto Mare&amp;apos;s Latios</v>
+        <v>Alto Mares Latios</v>
       </c>
       <c r="C213" t="str">
         <v>10M</v>
@@ -10030,10 +10663,13 @@
       <c r="F213" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/10th-Movie-Commemoration-Set/Alto-Mares-Latios?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G213">
+        <v>17.49</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>Tree of Beginning&amp;apos;s Mew</v>
+        <v>Tree of Beginnings Mew</v>
       </c>
       <c r="C214" t="str">
         <v>10M</v>
@@ -10046,6 +10682,9 @@
       </c>
       <c r="F214" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/10th-Movie-Commemoration-Set/Tree-of-Beginnings-Mew?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
+      </c>
+      <c r="G214">
+        <v>25.33</v>
       </c>
     </row>
     <row r="215">
@@ -10064,6 +10703,9 @@
       <c r="F215" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/10th-Movie-Commemoration-Set/Prince-of-the-Sea-Manaphy?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G215">
+        <v>4.63</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
@@ -10081,6 +10723,9 @@
       <c r="F216" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/10th-Movie-Commemoration-Set/Visitor-Deoxys?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G216">
+        <v>8.99</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
@@ -10098,6 +10743,9 @@
       <c r="F217" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/10th-Movie-Commemoration-Set/Seven-Nights-Jirachi?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G217">
+        <v>9.76</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
@@ -10118,6 +10766,9 @@
       <c r="F218" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/DP-Promos/Darkrai-Lv50?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G218">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
@@ -10138,10 +10789,13 @@
       <c r="F219" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/DP-Promos/Mothim-Lv41?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=3&amp;isReverseHolo=N</v>
       </c>
+      <c r="G219">
+        <v>3.57</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>Real World&amp;apos;s Giratina Lv.62</v>
+        <v>Real Worlds Giratina Lv.62</v>
       </c>
       <c r="B220">
         <v>109</v>
@@ -10157,6 +10811,9 @@
       </c>
       <c r="F220" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/DP-Promos/Real-Worlds-Giratina-Lv62?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
+      </c>
+      <c r="G220">
+        <v>2.58</v>
       </c>
     </row>
     <row r="221">
@@ -10178,6 +10835,9 @@
       <c r="F221" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/DP-Promos/Lucario-Lv39?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=3&amp;isReverseHolo=N</v>
       </c>
+      <c r="G221">
+        <v>4.79</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
@@ -10198,6 +10858,9 @@
       <c r="F222" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/DP-Promos/Regigigas-Lv42?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G222">
+        <v>2.16</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
@@ -10218,6 +10881,9 @@
       <c r="F223" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/DP-Promos/Porygon-Z-Lv56?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G223">
+        <v>4.83</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
@@ -10238,6 +10904,9 @@
       <c r="F224" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/DP-Promos/Gliscor-Lv47?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=3&amp;isReverseHolo=N</v>
       </c>
+      <c r="G224">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
@@ -10258,6 +10927,9 @@
       <c r="F225" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Beat-of-the-Frontier/Garchomp-Lv71-Pt3085?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G225">
+        <v>7.64</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
@@ -10278,6 +10950,9 @@
       <c r="F226" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Advent-of-Arceus/Salamence-Lv68-Pt4071?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G226">
+        <v>8.48</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
@@ -10298,6 +10973,9 @@
       <c r="F227" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Bonds-to-the-End-of-Time/Flygon-Lv65-Pt2072?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G227">
+        <v>5.65</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
@@ -10318,6 +10996,9 @@
       <c r="F228" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Beat-of-the-Frontier/Regigigas-FB-Lv50-Pt3087?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G228">
+        <v>6.71</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
@@ -10335,6 +11016,9 @@
       <c r="F229" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Temple-of-Anger/Regigigas-Lv52-DP5t?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G229">
+        <v>4.78</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
@@ -10355,6 +11039,9 @@
       <c r="F230" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Bonds-to-the-End-of-Time/Arcanine-Lv53-Pt2010?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=3&amp;isReverseHolo=N</v>
       </c>
+      <c r="G230">
+        <v>9.75</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
@@ -10375,6 +11062,9 @@
       <c r="F231" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Mewtwo-LVX-Collection-Pack/Riolu-Lv6-PtM008?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G231">
+        <v>8.33</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
@@ -10392,6 +11082,9 @@
       <c r="F232" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Bastiodon-the-Defender/Magmortar-Lv48-BtD?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=3&amp;isReverseHolo=N</v>
       </c>
+      <c r="G232" t="str">
+        <v>no data found</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
@@ -10409,6 +11102,9 @@
       <c r="F233" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Dawn-Dash/Kabutops-Lv56-DP4d?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=4&amp;isReverseHolo=N</v>
       </c>
+      <c r="G233">
+        <v>3.17</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
@@ -10429,6 +11125,9 @@
       <c r="F234" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Mewtwo-LVX-Collection-Pack/Lucario-Lv39-PtM009?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=3&amp;isReverseHolo=N</v>
       </c>
+      <c r="G234">
+        <v>2.83</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
@@ -10446,6 +11145,9 @@
       <c r="F235" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Space-Time-Creation/Lucario-Lv30-DP1?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=3&amp;isReverseHolo=N</v>
       </c>
+      <c r="G235">
+        <v>3.74</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
@@ -10463,6 +11165,9 @@
       <c r="F236" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Space-Time-Creation/Roserade-Lv33-DP1?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G236">
+        <v>1</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
@@ -10480,6 +11185,9 @@
       <c r="F237" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Shining-Darkness/Gastrodon-East-Sea-Lv43-DP3?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G237">
+        <v>3.88</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
@@ -10500,6 +11208,9 @@
       <c r="F238" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Intense-Fight-in-the-Destroyed-Sky/Lumineon-Lv38-IFDS020?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G238">
+        <v>6.07</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
@@ -10520,6 +11231,9 @@
       <c r="F239" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Galactics-Conquest/Delcatty-Lv53-Pt1076?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G239">
+        <v>4.53</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
@@ -10540,6 +11254,9 @@
       <c r="F240" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Intense-Fight-in-the-Destroyed-Sky/Raichu-Lv45-IFDS025?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=3&amp;isReverseHolo=N</v>
       </c>
+      <c r="G240">
+        <v>6.65</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
@@ -10560,6 +11277,9 @@
       <c r="F241" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Psycho-Drive/Shaymin-EX-V1?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G241">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
@@ -10580,6 +11300,9 @@
       <c r="F242" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Shaymin-LVX-Collection-Pack/Shaymin-LVX-PtS003?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=3&amp;isReverseHolo=N</v>
       </c>
+      <c r="G242">
+        <v>6.73</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
@@ -10600,6 +11323,9 @@
       <c r="F243" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Leafeon-vs-Metagross-Expert-Deck/Shaymin-LED005?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G243">
+        <v>9.97</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
@@ -10620,6 +11346,9 @@
       <c r="F244" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Giratina-DPt-Half-Deck/Giratina-Lv70-DPtG008?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G244">
+        <v>32.99</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
@@ -10637,6 +11366,9 @@
       <c r="F245" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Temple-of-Anger/Deoxys-Normal-Forme-Lv50-DP5t?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=3&amp;isReverseHolo=N</v>
       </c>
+      <c r="G245">
+        <v>6.3</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
@@ -10654,6 +11386,9 @@
       <c r="F246" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Shining-Darkness/Darkrai-Lv40-DP3?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=3&amp;isReverseHolo=N</v>
       </c>
+      <c r="G246">
+        <v>13.23</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
@@ -10674,6 +11409,9 @@
       <c r="F247" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Dialga-Half-Deck/Dialga-Lv70-DHD007?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=3&amp;isReverseHolo=N</v>
       </c>
+      <c r="G247">
+        <v>6.65</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="str">
@@ -10694,6 +11432,9 @@
       <c r="F248" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Shaymin-LVX-Collection-Pack/Time-Space-Distortion-PtS012?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G248">
+        <v>8.58</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
@@ -10714,6 +11455,9 @@
       <c r="F249" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Lost-Link/Spiritomb-LL022?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G249">
+        <v>4.83</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="str">
@@ -10734,6 +11478,9 @@
       <c r="F250" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Lost-Link/Pachirisu-LL012?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=3&amp;isReverseHolo=N</v>
       </c>
+      <c r="G250">
+        <v>5.97</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
@@ -10754,6 +11501,9 @@
       <c r="F251" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Metagross-Expert-Deck/Jirachi-MED006?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=3&amp;isReverseHolo=N</v>
       </c>
+      <c r="G251">
+        <v>7.2</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="str">
@@ -10771,6 +11521,9 @@
       <c r="F252" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Temple-of-Anger/Mamoswine-Lv54-DP5t?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G252">
+        <v>3.99</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="str">
@@ -10788,6 +11541,9 @@
       <c r="F253" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Cry-from-the-Mysterious/Politoed-Lv49-DP5c?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G253">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="str">
@@ -10805,6 +11561,9 @@
       <c r="F254" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Intense-Fight-in-the-Destroyed-Sky/Infernape-Lv49-IFDS060?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G254">
+        <v>8.16</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
@@ -10822,6 +11581,9 @@
       <c r="F255" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Beat-of-the-Frontier/Swampert-Lv60-Pt3029?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G255">
+        <v>5.81</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="str">
@@ -10839,6 +11601,9 @@
       <c r="F256" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Mewtwo-LVX-Collection-Pack/Luxray-Lv45-PtM004?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G256">
+        <v>4.97</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="str">
@@ -10856,6 +11621,9 @@
       <c r="F257" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Dialga-DPt-Half-Deck/Infernape-Lv44-DPtD004?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=3&amp;isReverseHolo=N</v>
       </c>
+      <c r="G257">
+        <v>6.9</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="str">
@@ -10876,6 +11644,9 @@
       <c r="F258" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Bonds-to-the-End-of-Time/Bastiodon-GL-Lv41-Pt2067?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G258">
+        <v>3.78</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="str">
@@ -10896,6 +11667,9 @@
       <c r="F259" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Bonds-to-the-End-of-Time/Luxray-GL-Lv48-Pt2029?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G259">
+        <v>4.62</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="str">
@@ -10916,6 +11690,9 @@
       <c r="F260" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Bonds-to-the-End-of-Time/Mismagius-GL-Lv26-Pt2046?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G260">
+        <v>6.83</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="str">
@@ -10936,6 +11713,9 @@
       <c r="F261" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Bonds-to-the-End-of-Time/Roserade-GL-Lv22-Pt2007?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G261">
+        <v>4.96</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="str">
@@ -10956,6 +11736,9 @@
       <c r="F262" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Bonds-to-the-End-of-Time/Rampardos-GL-Lv63-Pt2051?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G262">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="str">
@@ -10973,6 +11756,9 @@
       <c r="F263" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Secret-of-the-Lakes/Uxie-Lv50-DP2?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G263">
+        <v>8.95</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="str">
@@ -10990,6 +11776,9 @@
       <c r="F264" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Secret-of-the-Lakes/Mesprit-Lv50-DP2?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G264">
+        <v>6.48</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="str">
@@ -11007,6 +11796,9 @@
       <c r="F265" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Secret-of-the-Lakes/Magmortar-Lv48-DP2?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G265">
+        <v>6.71</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="str">
@@ -11024,6 +11816,9 @@
       <c r="F266" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Secret-of-the-Lakes/Alakazam-Lv47-DP2?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G266">
+        <v>11.8</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="str">
@@ -11041,6 +11836,9 @@
       <c r="F267" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Secret-of-the-Lakes/Bastiodon-Lv51-DP2?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G267">
+        <v>3.66</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="str">
@@ -11058,6 +11856,9 @@
       <c r="F268" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Secret-of-the-Lakes/Aggron-Lv49-DP2?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G268">
+        <v>10.66</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="str">
@@ -11075,6 +11876,9 @@
       <c r="F269" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Secret-of-the-Lakes/Ambipom-Lv36-DP2?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G269">
+        <v>2.47</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="str">
@@ -11092,6 +11896,9 @@
       <c r="F270" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Space-Time-Creation/Luxray-Lv48-DP1?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G270">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="str">
@@ -11109,10 +11916,13 @@
       <c r="F271" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Space-Time-Creation/Roserade-Lv33-DP1?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G271">
+        <v>1</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="str">
-        <v>Mouflair Lv.36</v>
+        <v>Moufflair Lv.36</v>
       </c>
       <c r="C272" t="str">
         <v>DP1</v>
@@ -11124,7 +11934,10 @@
         <v>NM</v>
       </c>
       <c r="F272" t="str">
-        <v>error</v>
+        <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Space-Time-Creation/Skuntank-Lv36-DP1?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
+      </c>
+      <c r="G272">
+        <v>3.48</v>
       </c>
     </row>
     <row r="273">
@@ -11143,6 +11956,9 @@
       <c r="F273" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Space-Time-Creation/Dusknoir-Lv42-DP1?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G273">
+        <v>5</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="str">
@@ -11160,6 +11976,9 @@
       <c r="F274" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Space-Time-Creation/Shiftry-Lv48-DP1?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G274">
+        <v>4.99</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="str">
@@ -11180,6 +11999,9 @@
       <c r="F275" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Arceus-LVX-Deck-Grass-Fire/Arceus-LVX-AGF011?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=3&amp;isReverseHolo=N</v>
       </c>
+      <c r="G275">
+        <v>14.44</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="str">
@@ -11200,6 +12022,9 @@
       <c r="F276" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Advent-of-Arceus/Arceus-LVX-Pt4077?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G276">
+        <v>42.97</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="str">
@@ -11220,6 +12045,9 @@
       <c r="F277" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Arceus-LVX-Deck-Lightning-Psychic/Arceus-Lv100-ALP008?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=3&amp;isReverseHolo=N</v>
       </c>
+      <c r="G277">
+        <v>7.43</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="str">
@@ -11240,6 +12068,9 @@
       <c r="F278" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Arceus-LVX-Deck-Lightning-Psychic/Arceus-Lv100-ALP008?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=3&amp;isReverseHolo=N</v>
       </c>
+      <c r="G278">
+        <v>7.43</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="str">
@@ -11260,6 +12091,9 @@
       <c r="F279" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Advent-of-Arceus/Arceus-Lv100-Pt4060?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=3&amp;isReverseHolo=N</v>
       </c>
+      <c r="G279">
+        <v>19.38</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="str">
@@ -11280,6 +12114,9 @@
       <c r="F280" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Advent-of-Arceus/Arceus-Lv100-Pt4058?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G280">
+        <v>18.35</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="str">
@@ -11300,6 +12137,9 @@
       <c r="F281" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Advent-of-Arceus/Arceus-Lv100-Pt4029?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G281">
+        <v>32.98</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="str">
@@ -11320,6 +12160,9 @@
       <c r="F282" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Arceus-LVX-Deck-Grass-Fire/Arceus-Lv100-AGF008?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G282">
+        <v>5.95</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="str">
@@ -11340,6 +12183,9 @@
       <c r="F283" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Arceus-LVX-Deck-Grass-Fire/Arceus-Lv100-AGF008?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G283">
+        <v>5.95</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="str">
@@ -11349,7 +12195,7 @@
         <v>005/017</v>
       </c>
       <c r="C284" t="str">
-        <v>Pt</v>
+        <v>AGF</v>
       </c>
       <c r="D284" t="str">
         <v>JP</v>
@@ -11358,7 +12204,10 @@
         <v>NM</v>
       </c>
       <c r="F284" t="str">
-        <v>error</v>
+        <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Arceus-LVX-Deck-Grass-Fire/Arceus-Lv100-AGF005?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
+      </c>
+      <c r="G284">
+        <v>7.96</v>
       </c>
     </row>
     <row r="285">
@@ -11369,7 +12218,7 @@
         <v>005/017</v>
       </c>
       <c r="C285" t="str">
-        <v>Pt</v>
+        <v>AGF</v>
       </c>
       <c r="D285" t="str">
         <v>JP</v>
@@ -11378,7 +12227,10 @@
         <v>NM</v>
       </c>
       <c r="F285" t="str">
-        <v>error</v>
+        <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Arceus-LVX-Deck-Grass-Fire/Arceus-Lv100-AGF005?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
+      </c>
+      <c r="G285">
+        <v>7.96</v>
       </c>
     </row>
     <row r="286">
@@ -11400,6 +12252,9 @@
       <c r="F286" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Movie-Commemoration-Random-Pack/Arceus-Lv100-V2-MCRP021?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=3&amp;isReverseHolo=N</v>
       </c>
+      <c r="G286">
+        <v>17.66</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="str">
@@ -11417,6 +12272,9 @@
       <c r="F287" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Heatran-vs-Regigigas-Deck-Kit/Mewtwo-LVX-HRDK?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G287">
+        <v>24.33</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="str">
@@ -11434,6 +12292,9 @@
       <c r="F288" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Moonlit-Pursuit/Cresselia-LVX-DP4m?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=3&amp;isReverseHolo=N</v>
       </c>
+      <c r="G288">
+        <v>11.82</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="str">
@@ -11454,6 +12315,9 @@
       <c r="F289" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/DP-Promos/Palkia-LVX-DP-P105?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=3&amp;isReverseHolo=N</v>
       </c>
+      <c r="G289">
+        <v>32.48</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="str">
@@ -11474,6 +12338,9 @@
       <c r="F290" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/DP-Promos/Porygon-Z-Lv56?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=3&amp;isReverseHolo=N</v>
       </c>
+      <c r="G290">
+        <v>6.25</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="str">
@@ -11494,6 +12361,9 @@
       <c r="F291" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/DP-Promos/Regigigas-Lv42?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=3&amp;isReverseHolo=N</v>
       </c>
+      <c r="G291">
+        <v>1.77</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="str">
@@ -11514,6 +12384,9 @@
       <c r="F292" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Shiny-Collection/Meloetta-EX-V1?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G292">
+        <v>6.99</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="str">
@@ -11534,6 +12407,9 @@
       <c r="F293" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Bonds-to-the-End-of-Time/Alakazam-4-LVX-Pt2042?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G293">
+        <v>40.98</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="str">
@@ -11554,6 +12430,9 @@
       <c r="F294" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Infernape-SP-Half-Deck/Infernape-4-LVX-PtI004?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G294">
+        <v>24.5</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="str">
@@ -11574,6 +12453,9 @@
       <c r="F295" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Garchomp-SP-Half-Deck/Garchomp-C-LVX-PtG007?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G295">
+        <v>28.3</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="str">
@@ -11594,6 +12476,9 @@
       <c r="F296" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Garchomp-SP-Half-Deck/Garchomp-C-Lv62-PtG006?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G296">
+        <v>35</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="str">
@@ -11611,6 +12496,9 @@
       <c r="F297" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Palkia-LVX-Constructed-Standard-Deck/Palkia-LVX-DP3p?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G297">
+        <v>14.78</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="str">
@@ -11628,6 +12516,9 @@
       <c r="F298" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Shining-Darkness/Dialga-LVX-DP3?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G298">
+        <v>45.17</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="str">
@@ -11648,6 +12539,9 @@
       <c r="F299" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Intense-Fight-in-the-Destroyed-Sky/Giratina-Lv59-IFDS048?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=3&amp;isReverseHolo=N</v>
       </c>
+      <c r="G299">
+        <v>7.59</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="str">
@@ -11668,6 +12562,9 @@
       <c r="F300" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Galactics-Conquest/Giratina-Lv63-Pt1051?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=3&amp;isReverseHolo=N</v>
       </c>
+      <c r="G300">
+        <v>27.57</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="str">
@@ -11688,6 +12585,9 @@
       <c r="F301" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Intense-Fight-in-the-Destroyed-Sky/Regigigas-LVX-IFDS080?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G301">
+        <v>24.5</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="str">
@@ -11705,6 +12605,9 @@
       <c r="F302" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Heatran-vs-Regigigas-Deck-Kit/Regigigas-Lv48-HRDK?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G302">
+        <v>6.49</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="str">
@@ -11725,6 +12628,9 @@
       <c r="F303" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Intense-Fight-in-the-Destroyed-Sky/Regigigas-Lv47-IFDS079?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G303">
+        <v>5.69</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="str">
@@ -11745,6 +12651,9 @@
       <c r="F304" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/DP-Promos/Regigigas-Lv42?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G304">
+        <v>2.16</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="str">
@@ -11762,6 +12671,9 @@
       <c r="F305" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Dawn-Dash/Leafeon-Lv42-DP4d?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G305">
+        <v>15.33</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="str">
@@ -11779,6 +12691,9 @@
       <c r="F306" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Dawn-Dash/Glaceon-Lv44-DP4d?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=3&amp;isReverseHolo=N</v>
       </c>
+      <c r="G306">
+        <v>12.5</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="str">
@@ -11796,13 +12711,19 @@
       <c r="F307" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Advent-of-Arceus/Toxicroak-Lv44-Pt4057?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G307">
+        <v>3</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="str">
         <v>Giratina Lv.59</v>
       </c>
+      <c r="B308" t="str">
+        <v>048/092</v>
+      </c>
       <c r="C308" t="str">
-        <v>DP4</v>
+        <v>IFDS</v>
       </c>
       <c r="D308" t="str">
         <v>JP</v>
@@ -11811,7 +12732,10 @@
         <v>EX</v>
       </c>
       <c r="F308" t="str">
-        <v>error</v>
+        <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Intense-Fight-in-the-Destroyed-Sky/Giratina-Lv59-IFDS048?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=3&amp;isReverseHolo=N</v>
+      </c>
+      <c r="G308">
+        <v>7.59</v>
       </c>
     </row>
     <row r="309">
@@ -11830,6 +12754,9 @@
       <c r="F309" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Temple-of-Anger/Froslass-Lv46-DP5t?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G309">
+        <v>2.83</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="str">
@@ -11847,6 +12774,9 @@
       <c r="F310" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Shining-Darkness/Gastrodon-East-Sea-Lv43-DP3?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=4&amp;isReverseHolo=N</v>
       </c>
+      <c r="G310">
+        <v>3.43</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="str">
@@ -11867,6 +12797,9 @@
       <c r="F311" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Intense-Fight-in-the-Destroyed-Sky/Torterra-Lv47-IFDS059?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=3&amp;isReverseHolo=N</v>
       </c>
+      <c r="G311">
+        <v>3.98</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="str">
@@ -11887,6 +12820,9 @@
       <c r="F312" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Galactics-Conquest/Shaymin-Lv56-Pt1014?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G312">
+        <v>7</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="str">
@@ -11907,6 +12843,9 @@
       <c r="F313" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Intense-Fight-in-the-Destroyed-Sky/Raichu-Lv45-IFDS025?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=4&amp;isReverseHolo=N</v>
       </c>
+      <c r="G313">
+        <v>4.53</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="str">
@@ -11927,6 +12866,9 @@
       <c r="F314" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Terastal-Festival-ex/Sandy-Shocks-ex-V2-sv8a215?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G314">
+        <v>4.44</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="str">
@@ -11947,6 +12889,9 @@
       <c r="F315" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Terastal-Festival-ex/Zorua-sv8a096?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=Y</v>
       </c>
+      <c r="G315">
+        <v>3.79</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="str">
@@ -11967,6 +12912,9 @@
       <c r="F316" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Terastal-Festival-ex/Natu-sv8a060?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=Y</v>
       </c>
+      <c r="G316">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="str">
@@ -11987,6 +12935,9 @@
       <c r="F317" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Terastal-Festival-ex/Sinistcha-sv8a018?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=Y</v>
       </c>
+      <c r="G317">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="str">
@@ -12007,6 +12958,9 @@
       <c r="F318" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Terastal-Festival-ex/Neutralization-Zone-sv8a184?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G318">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="str">
@@ -12027,6 +12981,9 @@
       <c r="F319" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Terastal-Festival-ex/Vaporeon-ex-V1-sv8a031?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G319">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="str">
@@ -12047,6 +13004,9 @@
       <c r="F320" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Terastal-Festival-ex/Flareon-ex-V1-sv8a022?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G320">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="str">
@@ -12067,6 +13027,9 @@
       <c r="F321" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Terastal-Festival-ex/Palafin-ex-V1-sv8a046?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G321">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="str">
@@ -12087,6 +13050,9 @@
       <c r="F322" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Terastal-Festival-ex/Iron-Hands-ex-V1-sv8a054?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G322">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="str">
@@ -12107,6 +13073,9 @@
       <c r="F323" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Terastal-Festival-ex/Gouging-Fire-ex-sv8a027?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G323">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="str">
@@ -12127,6 +13096,9 @@
       <c r="F324" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Terastal-Festival-ex/Cornerstone-Mask-Ogerpon-ex-V1-sv8a091?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G324">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="str">
@@ -12147,6 +13119,9 @@
       <c r="F325" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Terastal-Festival-ex/Sinistcha-ex-sv8a019?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G325">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="str">
@@ -12167,6 +13142,9 @@
       <c r="F326" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Terastal-Festival-ex/Wellspring-Mask-Ogerpon-ex-V1-sv8a050?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
+      <c r="G326">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="str">
@@ -12186,6 +13164,9 @@
       </c>
       <c r="F327" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Terastal-Festival-ex/Iron-Crown-ex-V1-sv8a078?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
+      </c>
+      <c r="G327">
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
@@ -16124,7 +17105,7 @@
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>Reverse World&amp;apos;s Giratina Lv.60</v>
+        <v>Reverse Worlds Giratina Lv.60</v>
       </c>
       <c r="B198" t="str">
         <v>005/009</v>
@@ -16184,7 +17165,7 @@
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>Icy Sky&amp;apos;s Shaymin Lv.62</v>
+        <v>Icy Skys Shaymin Lv.62</v>
       </c>
       <c r="B201" t="str">
         <v>001/009</v>
@@ -16372,7 +17353,7 @@
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>Crystal Tower&amp;apos;s Entei</v>
+        <v>Crystal Towers Entei</v>
       </c>
       <c r="C211" t="str">
         <v>10M</v>
@@ -16384,12 +17365,12 @@
         <v>NM</v>
       </c>
       <c r="F211" t="str">
-        <v>error</v>
+        <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/10th-Movie-Commemoration-Set/Crystal-Towers-Entei?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>Alto Mare&amp;apos;s Latias</v>
+        <v>Alto Mares Latias</v>
       </c>
       <c r="C212" t="str">
         <v>10M</v>
@@ -16401,12 +17382,12 @@
         <v>NM</v>
       </c>
       <c r="F212" t="str">
-        <v>error</v>
+        <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/10th-Movie-Commemoration-Set/Alto-Mares-Latias?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>Alto Mare&amp;apos;s Latios</v>
+        <v>Alto Mares Latios</v>
       </c>
       <c r="C213" t="str">
         <v>10M</v>
@@ -16418,12 +17399,12 @@
         <v>NM</v>
       </c>
       <c r="F213" t="str">
-        <v>error</v>
+        <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/10th-Movie-Commemoration-Set/Alto-Mares-Latios?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>Tree of Beginning&amp;apos;s Mew</v>
+        <v>Tree of Beginnings Mew</v>
       </c>
       <c r="C214" t="str">
         <v>10M</v>
@@ -16531,7 +17512,7 @@
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>Real World&amp;apos;s Giratina Lv.62</v>
+        <v>Real Worlds Giratina Lv.62</v>
       </c>
       <c r="B220">
         <v>109</v>
@@ -17502,7 +18483,7 @@
     </row>
     <row r="272">
       <c r="A272" t="str">
-        <v>Mouflair Lv.36</v>
+        <v>Moufflair Lv.36</v>
       </c>
       <c r="C272" t="str">
         <v>DP1</v>
@@ -17514,7 +18495,7 @@
         <v>NM</v>
       </c>
       <c r="F272" t="str">
-        <v>error</v>
+        <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Space-Time-Creation/Skuntank-Lv36-DP1?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
     </row>
     <row r="273">

--- a/cartes.xlsx
+++ b/cartes.xlsx
@@ -7,7 +7,7 @@
     <sheet name="CommandesData" sheetId="2" r:id="rId2"/>
     <sheet name="Feuille" sheetId="3" r:id="rId3"/>
     <sheet name="Feuil1" sheetId="4" r:id="rId4"/>
-    <sheet name="10_03_2025" sheetId="5" r:id="rId5"/>
+    <sheet name="11_03_2025" sheetId="5" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
@@ -16480,7 +16480,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Eevee-Heroes/Umbreon-V-V3-s6a085?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G2" s="1">
-        <v>227.98</v>
+        <v>227.62</v>
       </c>
     </row>
     <row r="3">
@@ -16526,7 +16526,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Eevee-Heroes/Sylveon-VMAX-V1-s6a041?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G4" s="1">
-        <v>1.78</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="5">
@@ -16549,7 +16549,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Eevee-Heroes/Umbreon-VMAX-V1?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G5" s="1">
-        <v>3.38</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="6">
@@ -16618,7 +16618,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Eevee-Heroes/Vaporeon-V-V1?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G8" s="1">
-        <v>0.87</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="9">
@@ -16664,7 +16664,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Blue-Sky-Stream/Trevenant-V-V2?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G10" s="1">
-        <v>2.03</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -16940,7 +16940,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VMAX-Climax/Galarian-Moltres-V-V1-s8b096?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G22" s="1">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="23">
@@ -17078,7 +17078,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VMAX-Climax/Flareon-V2-s8b188?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G28" s="1">
-        <v>7.11</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="29">
@@ -17101,7 +17101,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VMAX-Climax/Eevee-V2-s8b210?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G29" s="1">
-        <v>8</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="30">
@@ -17147,7 +17147,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VMAX-Climax/Corviknight-V-V2-s8b248?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G31" s="1">
-        <v>4.17</v>
+        <v>4.33</v>
       </c>
     </row>
     <row r="32">
@@ -17170,7 +17170,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Machamp-V-s12a071?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G32" s="1">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="33">
@@ -17239,7 +17239,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Regigigas-V-s12a124?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G35" s="1">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="36">
@@ -17262,7 +17262,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Mewtwo-V-s12a050?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G36" s="1">
-        <v>0.43</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="37">
@@ -17308,7 +17308,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Oricorio-V2-s12a176?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G38" s="1">
-        <v>0.77</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="39">
@@ -17469,7 +17469,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Gardenias-Vigor-V2-s12a243?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G45" s="1">
-        <v>14.58</v>
+        <v>14.38</v>
       </c>
     </row>
     <row r="46">
@@ -17492,7 +17492,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Zacian-V-V2-s12a225?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G46" s="1">
-        <v>10.96</v>
+        <v>10.81</v>
       </c>
     </row>
     <row r="47">
@@ -17515,7 +17515,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Radiant-Charizard-s12a015?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G47" s="1">
-        <v>2.96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48">
@@ -17538,7 +17538,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Entei-V-V2-s12a213?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G48" s="1">
-        <v>15.96</v>
+        <v>15.81</v>
       </c>
     </row>
     <row r="49">
@@ -17561,7 +17561,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Rayquaza-VMAX-s12a108?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G49" s="1">
-        <v>0.82</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="50">
@@ -17584,7 +17584,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Origin-Forme-Palkia-VSTAR-V1-s12a028?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G50" s="1">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="51">
@@ -17676,7 +17676,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Miltank-V2-s12a199?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G54" s="1">
-        <v>0.98</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="55">
@@ -17745,7 +17745,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Giratina-V-s12a110?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G57" s="1">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="58">
@@ -17837,7 +17837,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Psychic-Energy-s12a255?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G61" s="1">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="62">
@@ -17860,7 +17860,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Radiant-Hawlucha-s12a078?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G62" s="1">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="63">
@@ -17906,7 +17906,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Giratina-VSTAR-V2-s12a261?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G64" s="1">
-        <v>129.9</v>
+        <v>130.8</v>
       </c>
     </row>
     <row r="65">
@@ -17998,7 +17998,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Regigigas-VSTAR-V2-s12a233?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G68" s="1">
-        <v>7.17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69">
@@ -18021,7 +18021,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Entei-V-V2-s12a213?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G69" s="1">
-        <v>15.96</v>
+        <v>15.81</v>
       </c>
     </row>
     <row r="70">
@@ -18044,7 +18044,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Suicune-V-V2-s12a215?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G70" s="1">
-        <v>25.15</v>
+        <v>25.16</v>
       </c>
     </row>
     <row r="71">
@@ -18067,7 +18067,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Hisuian-Samurott-V-V2-s12a229?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G71" s="1">
-        <v>6.4</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="72">
@@ -18090,7 +18090,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Darkrai-VSTAR-s12a228?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G72" s="1">
-        <v>17.16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73">
@@ -18113,7 +18113,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Deoxys-VMAX-s12a222?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G73" s="1">
-        <v>12.23</v>
+        <v>12.32</v>
       </c>
     </row>
     <row r="74">
@@ -18136,7 +18136,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Zacian-V-V2-s12a225?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G74" s="1">
-        <v>10.96</v>
+        <v>10.81</v>
       </c>
     </row>
     <row r="75">
@@ -18182,7 +18182,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Hisuian-Samurott-VSTAR-V2-s12a230?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G76" s="1">
-        <v>4.66</v>
+        <v>4.13</v>
       </c>
     </row>
     <row r="77">
@@ -18205,7 +18205,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Raikou-V-V2-s12a218?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G77" s="1">
-        <v>17.32</v>
+        <v>17.12</v>
       </c>
     </row>
     <row r="78">
@@ -18251,7 +18251,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Keldeo-V2-s12a179?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G79" s="1">
-        <v>3.18</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="80">
@@ -18297,7 +18297,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Magmortar-V2-s12a175?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G81" s="1">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="82">
@@ -18320,7 +18320,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Lapras-V2-s12a177?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G82" s="1">
-        <v>3</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="83">
@@ -18412,7 +18412,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Absol-V2-s12a191?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G86" s="1">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="87">
@@ -18481,7 +18481,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Hisuian-Voltorb-V2-s12a173?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G89" s="1">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="90">
@@ -18527,7 +18527,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Mew-V2-s12a183?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G91" s="1">
-        <v>14.32</v>
+        <v>14.49</v>
       </c>
     </row>
     <row r="92">
@@ -18596,7 +18596,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Galarian-Moltres-V2-s12a190?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G94" s="1">
-        <v>4.96</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="95">
@@ -18642,7 +18642,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Galarian-Articuno-V2-s12a182?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G96" s="1">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="97">
@@ -18688,7 +18688,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/151/Giovannis-Charisma-V3-MEW204?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=2&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G98" s="1">
-        <v>26.5</v>
+        <v>28.97</v>
       </c>
     </row>
     <row r="99">
@@ -18711,7 +18711,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VSTAR-Universe/Hisuian-Voltorb-V2-s12a173?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G99" s="1">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="100">
@@ -18734,7 +18734,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Clay-Burst/Grafaiai-V2-sv2D080?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G100" s="1">
-        <v>0.87</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="101">
@@ -18803,7 +18803,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VMAX-Climax/Castform-V2-s8b211?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G103" s="1">
-        <v>0.46</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="104">
@@ -18895,7 +18895,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Scarlet-ex/Sandile-V2-sv1S087?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G107" s="1">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="108">
@@ -18941,7 +18941,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Dark-Phantasma/Hisuian-Arcanine-V2-s10a075?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G109" s="1">
-        <v>1.27</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="110">
@@ -18987,7 +18987,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Scarlet-ex/Klawf-V2-sv1S088?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G111" s="1">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="112">
@@ -19010,7 +19010,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VMAX-Climax/Ariados-V2-s8b205?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G112" s="1">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="113">
@@ -19056,7 +19056,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Battle-Region/Wyrdeer-V2-s9a070?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G114" s="1">
-        <v>0.47</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="115">
@@ -19102,7 +19102,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Battle-Region/Hoothoot-V2-s9a073?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G116" s="1">
-        <v>1.17</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="117">
@@ -19125,7 +19125,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Incandescent-Arcana/Smeargle-V2-s11a073?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G117" s="1">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="118">
@@ -19148,7 +19148,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Snow-Hazard/Orthworm-V2-sv2P081?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G118" s="1">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="119">
@@ -19171,7 +19171,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VMAX-Climax/Alcremie-V2-s8b201?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G119" s="1">
-        <v>0.81</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="120">
@@ -19194,7 +19194,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Shiny-Treasure-ex/Charizard-ex-V1-sv4a115?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G120" s="1">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="121">
@@ -19355,7 +19355,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Shiny-Treasure-ex/Pidgeot-ex-V1-sv4a139?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G127" s="1">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="128">
@@ -19470,7 +19470,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Shiny-Treasure-ex/Iron-Treads-ex-V1-sv4a132?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G132" s="1">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="133">
@@ -19493,7 +19493,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Shiny-Treasure-ex/Glimmora-ex-V1-sv4a111?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G133" s="1">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="134">
@@ -19746,7 +19746,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Dawn-Dash/Gardevoir-Lv55-DP4d?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G144" s="1">
-        <v>9.91</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="145">
@@ -19769,7 +19769,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Dawn-Dash/Sceptile-Lv52-DP4d?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=3&amp;isReverseHolo=N</v>
       </c>
       <c r="G145" s="1">
-        <v>4.27</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="146">
@@ -19815,7 +19815,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Emerald-Break/Shaymin-EX-V1-XY6063?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G147" s="1">
-        <v>7.5</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="148">
@@ -19884,7 +19884,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/GX-Ultra-Shiny/Reshiram-GX-sm8b018?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G150" s="1">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="151">
@@ -20114,7 +20114,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VMAX-Climax/Frosmoth-V2-s8b192?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G160" s="1">
-        <v>1</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="161">
@@ -20137,7 +20137,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VMAX-Climax/Kingdra-V2-s8b190?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G161" s="1">
-        <v>3.02</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="162">
@@ -20252,7 +20252,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Incandescent-Arcana/Alolan-Vulpix-VSTAR-V1-s11a023?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G166" s="1">
-        <v>0.52</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="167">
@@ -20321,7 +20321,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Incandescent-Arcana/Milotic-V2-s11a070?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G169" s="1">
-        <v>3.68</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="170">
@@ -20344,7 +20344,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Incandescent-Arcana/Gardevoir-V2-s11a072?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G170" s="1">
-        <v>2.93</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="171">
@@ -20367,7 +20367,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Ruler-of-the-Black-Flame/Gloom-V2-sv3109?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G171" s="1">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="172">
@@ -20390,7 +20390,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Ruler-of-the-Black-Flame/Ninetales-V2-sv3110?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G172" s="1">
-        <v>7.93</v>
+        <v>7.83</v>
       </c>
     </row>
     <row r="173">
@@ -20413,7 +20413,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Ruler-of-the-Black-Flame/Scizor-V2-sv3116?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G173" s="1">
-        <v>3.75</v>
+        <v>3.93</v>
       </c>
     </row>
     <row r="174">
@@ -20505,7 +20505,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/VMAX-Climax/Zekrom-V2-s8b195?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G177" s="1">
-        <v>16.9</v>
+        <v>16.99</v>
       </c>
     </row>
     <row r="178">
@@ -20620,7 +20620,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Shiny-Collection/Cinccino?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G182" s="1">
-        <v>10.67</v>
+        <v>9.19</v>
       </c>
     </row>
     <row r="183">
@@ -20689,7 +20689,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Shiny-Collection/Torchic?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G185" s="1">
-        <v>4.15</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="186">
@@ -20735,7 +20735,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Shiny-Collection/Teddiursa?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G187" s="1">
-        <v>3.99</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="188">
@@ -20781,7 +20781,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Shiny-Collection/Minccino?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G189" s="1">
-        <v>3.11</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="190">
@@ -20873,7 +20873,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Secret-of-the-Lakes/Azelf-Lv50-DP2?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=3&amp;isReverseHolo=N</v>
       </c>
       <c r="G193" s="1">
-        <v>6</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="194">
@@ -20942,7 +20942,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/11th-Movie-Commemoration-Set/Pikachu-Lv10?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G196" s="1">
-        <v>25.66</v>
+        <v>25.64</v>
       </c>
     </row>
     <row r="197">
@@ -21172,7 +21172,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/10th-Movie-Commemoration-Set/Timeless-Celebi?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G206" s="1">
-        <v>14.74</v>
+        <v>14.72</v>
       </c>
     </row>
     <row r="207">
@@ -21195,7 +21195,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/10th-Movie-Commemoration-Set/Wave-Guiding-Hero-Lucario?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G207" s="1">
-        <v>11.44</v>
+        <v>11.43</v>
       </c>
     </row>
     <row r="208">
@@ -21586,7 +21586,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Bonds-to-the-End-of-Time/Flygon-Lv65-Pt2072?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G224" s="1">
-        <v>6.32</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="225">
@@ -21655,7 +21655,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Bonds-to-the-End-of-Time/Arcanine-Lv53-Pt2010?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=3&amp;isReverseHolo=N</v>
       </c>
       <c r="G227" s="1">
-        <v>10.25</v>
+        <v>9.25</v>
       </c>
     </row>
     <row r="228">
@@ -21701,7 +21701,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Bastiodon-the-Defender/Magmortar-Lv48-BtD?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=3&amp;isReverseHolo=N</v>
       </c>
       <c r="G229" s="1">
-        <v>3.97</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="230">
@@ -21770,7 +21770,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Space-Time-Creation/Lucario-Lv30-DP1?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=3&amp;isReverseHolo=N</v>
       </c>
       <c r="G232" s="1">
-        <v>3.49</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="233">
@@ -21793,7 +21793,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Space-Time-Creation/Roserade-Lv33-DP1?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G233" s="1">
-        <v>1</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="234">
@@ -21816,7 +21816,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Shining-Darkness/Gastrodon-East-Sea-Lv43-DP3?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G234" s="1">
-        <v>3.72</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="235">
@@ -21839,7 +21839,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Intense-Fight-in-the-Destroyed-Sky/Lumineon-Lv38-IFDS020?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G235" s="1">
-        <v>6.8</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="236">
@@ -21908,7 +21908,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Psycho-Drive/Shaymin-EX-V1?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G238" s="1">
-        <v>4.28</v>
+        <v>4.05</v>
       </c>
     </row>
     <row r="239">
@@ -21977,7 +21977,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Giratina-DPt-Half-Deck/Giratina-Lv70-DPtG008?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G241" s="1">
-        <v>19.99</v>
+        <v>29.97</v>
       </c>
     </row>
     <row r="242">
@@ -22161,7 +22161,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Metagross-Expert-Deck/Jirachi-MED006?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=3&amp;isReverseHolo=N</v>
       </c>
       <c r="G249" s="1">
-        <v>15.38</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="250">
@@ -22184,7 +22184,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Temple-of-Anger/Mamoswine-Lv54-DP5t?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G250" s="1">
-        <v>3.99</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="251">
@@ -22253,7 +22253,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Beat-of-the-Frontier/Swampert-Lv60-Pt3029?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G253" s="1">
-        <v>5.21</v>
+        <v>5.48</v>
       </c>
     </row>
     <row r="254">
@@ -22322,7 +22322,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Bonds-to-the-End-of-Time/Bastiodon-GL-Lv41-Pt2067?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G256" s="1">
-        <v>3.81</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="257">
@@ -22368,7 +22368,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Bonds-to-the-End-of-Time/Mismagius-GL-Lv26-Pt2046?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G258" s="1">
-        <v>6.8</v>
+        <v>8.12</v>
       </c>
     </row>
     <row r="259">
@@ -22414,7 +22414,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Bonds-to-the-End-of-Time/Rampardos-GL-Lv63-Pt2051?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G260" s="1">
-        <v>2.58</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="261">
@@ -22460,7 +22460,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Secret-of-the-Lakes/Mesprit-Lv50-DP2?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G262" s="1">
-        <v>7.48</v>
+        <v>39.15</v>
       </c>
     </row>
     <row r="263">
@@ -22506,7 +22506,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Secret-of-the-Lakes/Alakazam-Lv47-DP2?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G264" s="1">
-        <v>11.8</v>
+        <v>11.78</v>
       </c>
     </row>
     <row r="265">
@@ -22598,7 +22598,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Space-Time-Creation/Luxray-Lv48-DP1?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G268" s="1">
-        <v>4.86</v>
+        <v>6.18</v>
       </c>
     </row>
     <row r="269">
@@ -22621,7 +22621,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Space-Time-Creation/Roserade-Lv33-DP1?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G269" s="1">
-        <v>1</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="270">
@@ -22667,7 +22667,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Space-Time-Creation/Dusknoir-Lv42-DP1?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G271" s="1">
-        <v>4.96</v>
+        <v>4.13</v>
       </c>
     </row>
     <row r="272">
@@ -22690,7 +22690,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Space-Time-Creation/Shiftry-Lv48-DP1?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G272" s="1">
-        <v>3.48</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="273">
@@ -22713,7 +22713,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Arceus-LVX-Deck-Lightning-Psychic/Arceus-Lv100-ALP008?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=3&amp;isReverseHolo=N</v>
       </c>
       <c r="G273" s="1">
-        <v>7.41</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="274">
@@ -22736,7 +22736,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Arceus-LVX-Deck-Lightning-Psychic/Arceus-Lv100-ALP008?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=3&amp;isReverseHolo=N</v>
       </c>
       <c r="G274" s="1">
-        <v>7.41</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="275">
@@ -22989,7 +22989,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/DPt-Promos/Arceus-Lv100-DPt-P041?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=3&amp;isReverseHolo=N</v>
       </c>
       <c r="G285" s="1">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="286">
@@ -23104,7 +23104,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/DP-Promos/Palkia-LVX-DP-P105?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=3&amp;isReverseHolo=N</v>
       </c>
       <c r="G290" s="1">
-        <v>43.82</v>
+        <v>32.48</v>
       </c>
     </row>
     <row r="291">
@@ -23196,7 +23196,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Bonds-to-the-End-of-Time/Alakazam-4-LVX-Pt2042?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G294" s="1">
-        <v>42.66</v>
+        <v>40.99</v>
       </c>
     </row>
     <row r="295">
@@ -23334,7 +23334,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Intense-Fight-in-the-Destroyed-Sky/Giratina-Lv59-IFDS048?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=3&amp;isReverseHolo=N</v>
       </c>
       <c r="G300" s="1">
-        <v>8.4</v>
+        <v>8.39</v>
       </c>
     </row>
     <row r="301">
@@ -23357,7 +23357,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Galactics-Conquest/Giratina-Lv63-Pt1051?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=3&amp;isReverseHolo=N</v>
       </c>
       <c r="G301" s="1">
-        <v>25.85</v>
+        <v>25.82</v>
       </c>
     </row>
     <row r="302">
@@ -23426,7 +23426,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Intense-Fight-in-the-Destroyed-Sky/Regigigas-Lv47-IFDS079?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G304" s="1">
-        <v>5.61</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="305">
@@ -23541,7 +23541,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Intense-Fight-in-the-Destroyed-Sky/Giratina-Lv59-IFDS048?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=3&amp;isReverseHolo=N</v>
       </c>
       <c r="G309" s="1">
-        <v>8.4</v>
+        <v>8.39</v>
       </c>
     </row>
     <row r="310">
@@ -23679,7 +23679,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Terastal-Festival-ex/Sandy-Shocks-ex-V2-sv8a215?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G315" s="1">
-        <v>3.98</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="316">
@@ -23702,7 +23702,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Terastal-Festival-ex/Zorua-sv8a096?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=Y</v>
       </c>
       <c r="G316" s="1">
-        <v>3.76</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="317">
@@ -24047,7 +24047,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Cry-from-the-Mysterious/Mesprit-LVX-DP5c?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G331" s="1">
-        <v>27.55</v>
+        <v>27.52</v>
       </c>
     </row>
     <row r="332">
@@ -24162,7 +24162,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Moonlit-Pursuit/Cresselia-Lv48-DP4m?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=4&amp;isReverseHolo=N</v>
       </c>
       <c r="G336" s="1">
-        <v>3.45</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="337">
@@ -24208,7 +24208,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Bonds-to-the-End-of-Time/Mismagius-GL-Lv26-Pt2046?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G338" s="1">
-        <v>6.8</v>
+        <v>8.12</v>
       </c>
     </row>
     <row r="339">
@@ -24277,7 +24277,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Bonds-to-the-End-of-Time/Rampardos-GL-Lv63-Pt2051?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G341" s="1">
-        <v>2.58</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="342">
@@ -24392,7 +24392,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/HeartGold-Collection/Fighting-Energy-L1HG?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=3&amp;isReverseHolo=N</v>
       </c>
       <c r="G346" s="1">
-        <v>19.5</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="347">
@@ -24415,7 +24415,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/HeartGold-Collection/Fighting-Energy-L1HG?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=3&amp;isReverseHolo=N</v>
       </c>
       <c r="G347" s="1">
-        <v>19.5</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="348">
@@ -24461,7 +24461,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/HeartGold-Collection/Fire-Energy-L1HG?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=3&amp;isReverseHolo=N</v>
       </c>
       <c r="G349" s="1">
-        <v>8.1</v>
+        <v>8.21</v>
       </c>
     </row>
     <row r="350">
@@ -24576,7 +24576,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Shining-Darkness/Palkia-LVX-DP3?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=3&amp;isReverseHolo=N</v>
       </c>
       <c r="G354" s="1">
-        <v>30.67</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="355">
@@ -24852,7 +24852,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Arceus-LVX-Deck-Lightning-Psychic/Arceus-Lv100-ALP008?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=3&amp;isReverseHolo=N</v>
       </c>
       <c r="G366" s="1">
-        <v>7.41</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="367">
@@ -24921,7 +24921,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Arceus-LVX-Deck-Grass-Fire/Arceus-Lv100-AGF005?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=3&amp;isReverseHolo=N</v>
       </c>
       <c r="G369" s="1">
-        <v>7.46</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="370">
@@ -25013,7 +25013,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Arceus-LVX-Deck-Lightning-Psychic/Arceus-Lv100-ALP003?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=3&amp;isReverseHolo=N</v>
       </c>
       <c r="G373" s="1">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="374">
@@ -25059,7 +25059,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Arceus-LVX-Deck-Lightning-Psychic/Arceus-Lv100-ALP003?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=3&amp;isReverseHolo=N</v>
       </c>
       <c r="G375" s="1">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="376">
